--- a/Huzaifa-annotations/SYK_Q2_2021.xlsx
+++ b/Huzaifa-annotations/SYK_Q2_2021.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/Desktop/SubjECTive-QA/Huzaifa-annotations/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9726A421-8725-5E4E-80A3-4D2E4990D346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -354,8 +360,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,6 +424,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -464,7 +478,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -496,9 +510,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -530,6 +562,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -705,14 +755,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,7 +796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -761,13 +813,13 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -776,7 +828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -793,13 +845,13 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -808,7 +860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -828,7 +880,7 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -840,7 +892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -872,7 +924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -892,7 +944,7 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -904,7 +956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -924,7 +976,7 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -936,7 +988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -953,10 +1005,10 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -968,7 +1020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -988,7 +1040,7 @@
         <v>2</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1000,7 +1052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1020,7 +1072,7 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1032,7 +1084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1049,10 +1101,10 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1064,7 +1116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1084,19 +1136,19 @@
         <v>2</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1116,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1128,7 +1180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1148,7 +1200,7 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1160,7 +1212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1180,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1192,7 +1244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1212,7 +1264,7 @@
         <v>2</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1224,7 +1276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1244,7 +1296,7 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -1256,7 +1308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1276,19 +1328,19 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1308,7 +1360,7 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1320,7 +1372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1340,7 +1392,7 @@
         <v>2</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -1352,7 +1404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1372,10 +1424,10 @@
         <v>2</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -1384,7 +1436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1404,10 +1456,10 @@
         <v>2</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -1416,7 +1468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1436,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -1448,7 +1500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1468,10 +1520,10 @@
         <v>2</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -1480,7 +1532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1500,10 +1552,10 @@
         <v>2</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -1512,7 +1564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1532,10 +1584,10 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -1544,7 +1596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1564,10 +1616,10 @@
         <v>2</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>2</v>
@@ -1576,7 +1628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -1596,7 +1648,7 @@
         <v>2</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -1608,7 +1660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -1628,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -1640,7 +1692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -1660,7 +1712,7 @@
         <v>2</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -1672,7 +1724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -1692,10 +1744,10 @@
         <v>2</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -1704,7 +1756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1724,7 +1776,7 @@
         <v>2</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -1736,7 +1788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -1756,10 +1808,10 @@
         <v>2</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -1768,7 +1820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1788,10 +1840,10 @@
         <v>2</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -1800,7 +1852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -1817,13 +1869,13 @@
         <v>2</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <v>2</v>
@@ -1832,7 +1884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -1852,10 +1904,10 @@
         <v>2</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -1864,7 +1916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -1884,7 +1936,7 @@
         <v>2</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -1896,7 +1948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -1916,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <v>2</v>
